--- a/dataAnalyzerSheet.xlsx
+++ b/dataAnalyzerSheet.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B47AB-AEE0-4720-8088-E93BE9D13187}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="A1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,12 +70,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -382,16 +381,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -491,16 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB81F7D-FE27-4D79-81D5-4EB813E52EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/dataAnalyzerSheet.xlsx
+++ b/dataAnalyzerSheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54FCD6-9293-4991-8786-417A066C5407}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -70,12 +71,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -381,16 +382,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="J3" sqref="J3:O120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -482,6 +483,2366 @@
       </c>
       <c r="O2">
         <v>-69.989999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -490,16 +2851,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/dataAnalyzerSheet.xlsx
+++ b/dataAnalyzerSheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F54FCD6-9293-4991-8786-417A066C5407}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6BCA2A-A187-4618-BEDE-E067653B44DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
